--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5506be264ea6d1/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="13_ncr:1_{9B564A53-AB5B-4BEE-8102-B82484D4273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8B06D0-01F4-46F7-83B2-ADBE6743F51D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6F68C-AA23-450B-A9FE-FE765F5CFF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utah Jazz" sheetId="32" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="778">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2380,6 +2380,30 @@
   </si>
   <si>
     <t>Toni Kukoč*</t>
+  </si>
+  <si>
+    <t>Games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinutesPlayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldGoals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-PtFieldGoals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeThrows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalRebounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2445,9 +2469,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2456,6 +2477,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2473,10 +2497,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2745,10 +2765,10 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2758,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>772</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2766,30 +2786,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="G1" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1"/>
+      <c r="L1" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="R1" s="4"/>
       <c r="T1" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="V1" t="s">
-        <v>27</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -3277,10 +3297,10 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -3710,7 +3730,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3728,30 +3748,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -4670,7 +4690,7 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4688,30 +4708,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -5626,7 +5646,7 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5644,30 +5664,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -6585,7 +6605,7 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6603,30 +6623,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -7542,7 +7562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7560,30 +7580,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -8499,7 +8519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8517,30 +8537,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -9453,7 +9473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9471,30 +9491,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -10410,7 +10430,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10428,30 +10448,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -11367,7 +11387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11385,30 +11405,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -12326,7 +12346,7 @@
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12344,30 +12364,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -13282,7 +13302,7 @@
       <selection activeCell="O1" sqref="O1:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -13300,30 +13320,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -14237,7 +14257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14255,30 +14275,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -15194,7 +15214,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15212,30 +15232,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -16153,7 +16173,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -16171,30 +16191,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -17110,7 +17130,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -17128,30 +17148,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -18067,7 +18087,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -18085,30 +18105,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -19034,7 +19054,7 @@
       <selection activeCell="J62" sqref="J62:M66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -19052,30 +19072,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -19991,7 +20011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -20009,30 +20029,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -20945,7 +20965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -20963,30 +20983,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -21902,7 +21922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -21920,30 +21940,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -22859,7 +22879,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -22877,30 +22897,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -23382,9 +23402,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="O12" s="3"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="4"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -23823,7 +23843,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -23841,30 +23861,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -24782,7 +24802,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24800,30 +24820,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -25741,7 +25761,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25759,30 +25779,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -26700,7 +26720,7 @@
       <selection sqref="A1:V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26718,30 +26738,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -27656,7 +27676,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27674,30 +27694,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -28615,7 +28635,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -28633,30 +28653,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -29574,7 +29594,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -29592,30 +29612,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -30533,7 +30553,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -30551,30 +30571,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="4"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6F68C-AA23-450B-A9FE-FE765F5CFF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B04B39-3C79-44C4-9511-45F2E735257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="779">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2403,6 +2403,10 @@
   </si>
   <si>
     <t>TotalRebounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2765,7 +2769,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2784,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>773</v>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B04B39-3C79-44C4-9511-45F2E735257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FC697-275B-4C39-9A88-3C0ADBB85AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="778">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2386,10 +2386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MinutesPlayed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FieldGoals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2406,8 +2402,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLAYER1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MinutesPlayed</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2481,6 +2476,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2788,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H1" s="4"/>
       <c r="J1" t="s">
@@ -2800,20 +2798,20 @@
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="M1" s="4"/>
+      <c r="L1" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="R1" s="5"/>
       <c r="T1" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="V1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -3301,10 +3299,10 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -3714,8 +3712,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="3">
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="C13:D13"/>
@@ -3752,30 +3749,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -4712,30 +4709,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -5668,30 +5665,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -6627,30 +6624,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -7584,30 +7581,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -8541,30 +8538,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -9495,30 +9492,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -10452,30 +10449,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -11409,30 +11406,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -12368,30 +12365,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -13324,30 +13321,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -14279,30 +14276,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -15236,30 +15233,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -16195,30 +16192,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -17152,30 +17149,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -18109,30 +18106,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -19076,30 +19073,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -20033,30 +20030,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -20987,30 +20984,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -21944,30 +21941,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -22901,30 +22898,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -23865,30 +23862,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -24824,30 +24821,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -25783,30 +25780,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -26742,30 +26739,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -27698,30 +27695,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -28657,30 +28654,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -29616,30 +29613,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -30575,30 +30572,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FC697-275B-4C39-9A88-3C0ADBB85AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191FB5F-D86F-45E2-BED5-F24EA967DA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="779">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2403,6 +2403,10 @@
   </si>
   <si>
     <t>MinutesPlayed</t>
+  </si>
+  <si>
+    <t>PLAYER1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2767,7 +2771,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2786,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>777</v>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191FB5F-D86F-45E2-BED5-F24EA967DA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CF213-C9BF-457F-8955-EE32BF012F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2402,10 +2402,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PLAYER1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MinutesPlayed</t>
-  </si>
-  <si>
-    <t>PLAYER1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2771,7 +2772,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2790,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>777</v>
       </c>
       <c r="H1" s="4"/>
       <c r="J1" t="s">

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CF213-C9BF-457F-8955-EE32BF012F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA3D3FD-1185-419D-BA28-C7A2D4750A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="778">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2399,10 +2399,6 @@
   </si>
   <si>
     <t>TotalRebounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2776,6 +2772,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2791,10 +2793,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="H1" s="4"/>
       <c r="J1" t="s">

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5506be264ea6d1/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA3D3FD-1185-419D-BA28-C7A2D4750A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="583" documentId="13_ncr:1_{9B564A53-AB5B-4BEE-8102-B82484D4273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8B06D0-01F4-46F7-83B2-ADBE6743F51D}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utah Jazz" sheetId="32" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="772">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2380,30 +2380,6 @@
   </si>
   <si>
     <t>Toni Kukoč*</t>
-  </si>
-  <si>
-    <t>Games</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldGoals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-PtFieldGoals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeThrows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalRebounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinutesPlayed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2467,8 +2443,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2477,12 +2456,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2500,6 +2473,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2768,16 +2745,10 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2787,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>772</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2795,30 +2766,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="H1" s="4"/>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="M1" s="5"/>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="R1" s="5"/>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1"/>
       <c r="T1" t="s">
         <v>1</v>
       </c>
@@ -2826,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="V1" t="s">
-        <v>775</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -3306,10 +3277,10 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -3719,7 +3690,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="C13:D13"/>
@@ -3738,7 +3710,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3756,30 +3728,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -4698,7 +4670,7 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4716,30 +4688,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -5654,7 +5626,7 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5672,30 +5644,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -6613,7 +6585,7 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6631,30 +6603,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -7570,7 +7542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7588,30 +7560,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -8527,7 +8499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8545,30 +8517,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -9481,7 +9453,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9499,30 +9471,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -10438,7 +10410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10456,30 +10428,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -11395,7 +11367,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11413,30 +11385,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -12354,7 +12326,7 @@
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12372,30 +12344,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -13310,7 +13282,7 @@
       <selection activeCell="O1" sqref="O1:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -13328,30 +13300,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -14265,7 +14237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14283,30 +14255,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -15222,7 +15194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15240,30 +15212,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -16181,7 +16153,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -16199,30 +16171,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -17138,7 +17110,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -17156,30 +17128,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -18095,7 +18067,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -18113,30 +18085,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -19062,7 +19034,7 @@
       <selection activeCell="J62" sqref="J62:M66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -19080,30 +19052,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -20019,7 +19991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -20037,30 +20009,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -20973,7 +20945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -20991,30 +20963,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -21930,7 +21902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -21948,30 +21920,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -22887,7 +22859,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -22905,30 +22877,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -23410,9 +23382,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="O12" s="2"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -23851,7 +23823,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -23869,30 +23841,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -24810,7 +24782,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24828,30 +24800,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -25769,7 +25741,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25787,30 +25759,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -26728,7 +26700,7 @@
       <selection sqref="A1:V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26746,30 +26718,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -27684,7 +27656,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27702,30 +27674,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -28643,7 +28615,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -28661,30 +28633,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -29602,7 +29574,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -29620,30 +29592,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -30561,7 +30533,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -30579,30 +30551,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="1"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="1"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5506be264ea6d1/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="13_ncr:1_{9B564A53-AB5B-4BEE-8102-B82484D4273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8B06D0-01F4-46F7-83B2-ADBE6743F51D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC69A5A9-F1BE-435C-9EBC-3A36E9132BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utah Jazz" sheetId="32" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="778">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2380,6 +2380,30 @@
   </si>
   <si>
     <t>Toni Kukoč*</t>
+  </si>
+  <si>
+    <t>Games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldGoals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-PtFieldGoals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeThrows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalRebounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinutesPlayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2443,11 +2467,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2457,6 +2478,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2473,10 +2501,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2745,10 +2769,17 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2758,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>772</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2766,30 +2797,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="G1" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1"/>
+      <c r="L1" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="M1" s="4"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="R1" s="4"/>
       <c r="T1" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="V1" t="s">
-        <v>27</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -3277,10 +3308,10 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -3690,12 +3721,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C13:D13"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3710,7 +3735,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3728,30 +3753,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -4670,7 +4695,7 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4688,30 +4713,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -5626,7 +5651,7 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5644,30 +5669,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -6585,7 +6610,7 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6603,30 +6628,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -7542,7 +7567,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7560,30 +7585,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -8499,7 +8524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8517,30 +8542,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -9453,7 +9478,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9471,30 +9496,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -10410,7 +10435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10428,30 +10453,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -11367,7 +11392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11385,30 +11410,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -12326,7 +12351,7 @@
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12344,30 +12369,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -13282,7 +13307,7 @@
       <selection activeCell="O1" sqref="O1:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -13300,30 +13325,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -14237,7 +14262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14255,30 +14280,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -15194,7 +15219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15212,30 +15237,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -16153,7 +16178,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -16171,30 +16196,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -17110,7 +17135,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -17128,30 +17153,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -18067,7 +18092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -18085,30 +18110,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -19034,7 +19059,7 @@
       <selection activeCell="J62" sqref="J62:M66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -19052,30 +19077,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -19991,7 +20016,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -20009,30 +20034,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -20945,7 +20970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -20963,30 +20988,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -21902,7 +21927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -21920,30 +21945,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -22859,7 +22884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -22877,30 +22902,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -23382,9 +23407,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="O12" s="3"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="4"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -23823,7 +23848,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -23841,30 +23866,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -24782,7 +24807,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24800,30 +24825,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -25741,7 +25766,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25759,30 +25784,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -26700,7 +26725,7 @@
       <selection sqref="A1:V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26718,30 +26743,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -27656,7 +27681,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27674,30 +27699,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -28615,7 +28640,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -28633,30 +28658,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -29574,7 +29599,7 @@
       <selection sqref="A1:V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -29592,30 +29617,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>
@@ -30533,7 +30558,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -30551,30 +30576,30 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="O1" t="s">
         <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="5"/>
       <c r="S1" t="s">
         <v>1</v>
       </c>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC69A5A9-F1BE-435C-9EBC-3A36E9132BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6078AEBF-0BB6-412D-A10E-0347DDD11955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="779">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2403,6 +2403,10 @@
   </si>
   <si>
     <t>MinutesPlayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2467,7 +2471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2484,7 +2488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2769,7 +2772,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2795,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>777</v>
@@ -3308,10 +3311,9 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>776</v>
       </c>
-      <c r="D13" s="6"/>
       <c r="E13" t="s">
         <v>1</v>
       </c>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6078AEBF-0BB6-412D-A10E-0347DDD11955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB20A2B-850E-4152-8EB3-0BC774327FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="780">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2407,6 +2407,10 @@
   </si>
   <si>
     <t>PLAYER1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2772,7 +2776,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2782,6 +2786,7 @@
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -2808,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>773</v>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB20A2B-850E-4152-8EB3-0BC774327FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE17AC1-D00A-41B3-A1D5-0DD6B8916ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="785">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2411,6 +2411,26 @@
   </si>
   <si>
     <t>PLAYER2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2775,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996023BE-D0A2-4486-9ACC-15E30B75AD71}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2787,6 +2807,7 @@
     <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -2833,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="V1" t="s">
         <v>775</v>
@@ -3314,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="C13" t="s">
         <v>776</v>
@@ -3323,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -3332,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="L13" t="s">
         <v>28</v>
@@ -3341,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="Q13" t="s">
         <v>32</v>
@@ -26729,7 +26750,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE17AC1-D00A-41B3-A1D5-0DD6B8916ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE9B9E-CA81-43CF-9DE2-D6C408BCDD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="786">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2431,6 +2431,10 @@
   </si>
   <si>
     <t>PLAYER8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2795,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996023BE-D0A2-4486-9ACC-15E30B75AD71}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>774</v>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE9B9E-CA81-43CF-9DE2-D6C408BCDD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E6B4D1-686B-4846-A22E-3522B17C64E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2390,10 +2390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-PtFieldGoals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FreeThrows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2435,6 +2431,10 @@
   </si>
   <si>
     <t>PLAYER3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3PtFieldGoals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2800,7 +2800,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2828,17 +2828,17 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1" s="4"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>773</v>
@@ -2848,20 +2848,20 @@
         <v>1</v>
       </c>
       <c r="P1" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>785</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>774</v>
       </c>
       <c r="R1" s="4"/>
       <c r="T1" t="s">
         <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -3339,16 +3339,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>781</v>
-      </c>
-      <c r="C13" t="s">
-        <v>776</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>782</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -3357,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L13" t="s">
         <v>28</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q13" t="s">
         <v>32</v>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E6B4D1-686B-4846-A22E-3522B17C64E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84BF2A9-B6A8-4DD2-898A-F9E0B75165E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2434,7 +2434,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3PtFieldGoals</t>
+    <t>PtFieldGoals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2800,7 +2800,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>

--- a/data/Rank.xlsx
+++ b/data/Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84BF2A9-B6A8-4DD2-898A-F9E0B75165E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4714C1-CB4B-49C4-961E-93DB7876770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="786">
   <si>
     <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2797,958 +2797,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996023BE-D0A2-4486-9ACC-15E30B75AD71}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" customWidth="1"/>
     <col min="22" max="22" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="C1" t="s">
-        <v>772</v>
+        <v>777</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>777</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="H1" s="4"/>
+        <v>778</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="I1" t="s">
+        <v>779</v>
+      </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>774</v>
       </c>
       <c r="K1" t="s">
-        <v>778</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="M1" s="4"/>
+        <v>780</v>
+      </c>
+      <c r="L1" t="s">
+        <v>775</v>
+      </c>
+      <c r="M1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
       <c r="O1" t="s">
-        <v>1</v>
+        <v>782</v>
       </c>
       <c r="P1" t="s">
-        <v>784</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="R1" s="4"/>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>779</v>
-      </c>
-      <c r="V1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>783</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>1504</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="D2">
         <v>53479</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>13335</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>1071</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
       <c r="J2">
-        <v>1</v>
+        <v>9619</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2">
-        <v>13335</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+        <v>14601</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>15806</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>3265</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>47764</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7039</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>958</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>4788</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>7119</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>5085</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>2035</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>875</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>25169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5237</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>845</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>3814</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>6939</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>4159</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>1100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>765</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>21403</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>4908</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>689</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>2520</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>4626</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>4003</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>960</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>708</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>20989</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3989</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>574</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>2000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>4051</v>
+      </c>
+      <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="Q2">
-        <v>1071</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="N6">
+        <v>2213</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>931</v>
+      </c>
+      <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="V2">
-        <v>9619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1434</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>47764</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>7039</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R6">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>700</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>20523</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>3258</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>550</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>1946</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>3978</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1919</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>728</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>681</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>18301</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>2976</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>540</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1915</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8">
+        <v>3972</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>1895</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>618</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>644</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>17899</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="Q3">
-        <v>958</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3">
-        <v>4788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>875</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>25169</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="F9">
+        <v>2953</v>
+      </c>
+      <c r="G9" t="s">
         <v>4</v>
       </c>
-      <c r="L4">
-        <v>5237</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4">
-        <v>845</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="H9">
+        <v>530</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>1801</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>3881</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>1844</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>604</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>628</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>17329</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>2804</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>517</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>1648</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>3836</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>1762</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10">
+        <v>544</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>611</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>16443</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2796</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>511</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>1615</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>3792</v>
+      </c>
+      <c r="M11" t="s">
         <v>15</v>
       </c>
-      <c r="V4">
-        <v>3814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>765</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>21403</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>4908</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="N11">
+        <v>1702</v>
+      </c>
+      <c r="O11" t="s">
         <v>22</v>
       </c>
-      <c r="Q5">
-        <v>689</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>708</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>20989</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>3989</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6">
-        <v>574</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="U6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>700</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>20523</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7">
-        <v>3258</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7">
-        <v>550</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V7">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>681</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>18301</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>2976</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="P8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8">
-        <v>540</v>
-      </c>
-      <c r="T8">
-        <v>7</v>
-      </c>
-      <c r="U8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V8">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>644</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>17899</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>2953</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
-      </c>
-      <c r="P9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>530</v>
-      </c>
-      <c r="T9">
-        <v>8</v>
-      </c>
-      <c r="U9" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>628</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>17329</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <v>2804</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
-      </c>
-      <c r="P10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10">
-        <v>517</v>
-      </c>
-      <c r="T10">
-        <v>9</v>
-      </c>
-      <c r="U10" t="s">
-        <v>25</v>
-      </c>
-      <c r="V10">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>611</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>16443</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>2796</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11">
-        <v>511</v>
-      </c>
-      <c r="T11">
-        <v>10</v>
-      </c>
-      <c r="U11" t="s">
-        <v>26</v>
-      </c>
-      <c r="V11">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>780</v>
-      </c>
-      <c r="C13" t="s">
-        <v>775</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>781</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>782</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>14601</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>15806</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14">
-        <v>3265</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>7119</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>5085</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15">
-        <v>2035</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>6939</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>4159</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16">
-        <v>1100</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>4626</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17">
-        <v>4003</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <v>960</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="P17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>4051</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>2213</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>931</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>3978</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>1919</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="K19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19">
-        <v>728</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="P11">
+        <v>527</v>
+      </c>
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
-      <c r="C20">
-        <v>3972</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20">
-        <v>1895</v>
-      </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20">
-        <v>618</v>
-      </c>
-      <c r="O20">
-        <v>7</v>
-      </c>
-      <c r="P20" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>3881</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>1844</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-      <c r="K21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21">
-        <v>604</v>
-      </c>
-      <c r="O21">
-        <v>8</v>
-      </c>
-      <c r="P21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>3836</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22">
-        <v>1762</v>
-      </c>
-      <c r="J22">
-        <v>9</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22">
-        <v>544</v>
-      </c>
-      <c r="O22">
-        <v>9</v>
-      </c>
-      <c r="P22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23">
-        <v>3792</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <v>1702</v>
-      </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23">
-        <v>527</v>
-      </c>
-      <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23">
+      <c r="R11">
         <v>498</v>
       </c>
     </row>
@@ -13336,7 +13024,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R11"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
